--- a/2025/11/2025-11-01/01_fixtures.xlsx
+++ b/2025/11/2025-11-01/01_fixtures.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bayern Munich  - Bayer 04 Leverkusen: 16:30</t>
+          <t>Bayern Munich  - Bayer 04 Leverkusen: -:-'</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -544,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Club Brugge KV  - FCV Dender EH: 16:15</t>
+          <t>Club Brugge KV  - FCV Dender EH: -:-'</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Galatasaray  - Trabzonspor: 16:00</t>
+          <t>Galatasaray  - Trabzonspor: -:-'</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kongsvinger IL - Lillestrøm SK : -:-'</t>
+          <t>Kongsvinger IL - Lillestrøm SK : 0:1'</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FC Flora Tallinn  - FC Kuressaare: 1:0'</t>
+          <t>FC Flora Tallinn ✓ - FC Kuressaare: 2:0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -647,6 +647,17 @@
           <t>73%</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -656,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Al-Nassr FC  - Al-Fayha FC: 16:30</t>
+          <t>Al-Nassr FC  - Al-Fayha FC: -:-'</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -712,7 +723,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FC Zbrojovka Brno  - SK Hanacka Slavia Kromeriz: -:-'</t>
+          <t>FC Zbrojovka Brno  - SK Hanacka Slavia Kromeriz: 4:1'</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -768,7 +779,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Buriram United  - Nakhonratchasima Mazda FC: 0:1'</t>
+          <t>Buriram United ✓ - Nakhonratchasima Mazda FC: 2:1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -787,6 +798,17 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,7 +818,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Burnley FC - Arsenal FC : -:-'</t>
+          <t>Burnley FC - Arsenal FC : 0:2'</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -824,7 +846,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain  - OGC Nice: 15:00</t>
+          <t>Paris Saint-Germain  - OGC Nice: -:-'</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -852,7 +874,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Haverfordwest County - The New Saints : -:-'</t>
+          <t>Haverfordwest County - The New Saints : 0:3'</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -908,7 +930,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zenit St. Petersburg  - Lokomotiv Moscow: 16:15</t>
+          <t>Zenit St. Petersburg  - Lokomotiv Moscow: -:-'</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1076,11 +1098,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FC Aarau  - FC Rapperswil-Jona: 16:00</t>
+          <t>FC Aarau  - FC Rapperswil-Jona: -:-'</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1160,7 +1182,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Egersunds IK  - IL Hødd: -:-'</t>
+          <t>Egersunds IK  - IL Hødd: 0:0'</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1188,7 +1210,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Falkenbergs FF - Västerås SK : 0:0'</t>
+          <t>Falkenbergs FF - Västerås SK ✓: 0:1</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1207,6 +1229,17 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1244,7 +1277,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Heart of Midlothian FC  - Dundee FC: -:-'</t>
+          <t>Heart of Midlothian FC  - Dundee FC: 2:0'</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1272,7 +1305,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Club Africain  - AS Soliman: -:-'</t>
+          <t>Club Africain  - AS Soliman: 1:1</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1328,19 +1361,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NK Celje  - NK Aluminij Kidricevo: 15:30</t>
+          <t>UD Almería  - SD Eibar: 19:00</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.68</v>
+        <v>1.38</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>UD Almería</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1356,23 +1389,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UD Almería  - SD Eibar: 19:00</t>
+          <t>Hapoel Tel Aviv  - Ironi Tiberias: 0:0'</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>UD Almería</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>62%</t>
         </is>
       </c>
     </row>
@@ -1384,19 +1417,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv  - Ironi Tiberias: 14:30</t>
+          <t>Caguas Sporting FC  - EF Taurinos de Cayey: 19:30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.1</v>
+        <v>3.37</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Caguas Sporting FC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1412,24 +1445,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Caguas Sporting FC  - EF Taurinos de Cayey: 19:30</t>
+          <t>Kuala Lumpur City FC ✓ - Kelantan The Real Warriors: 2:1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.37</v>
+        <v>2.65</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Caguas Sporting FC</t>
+          <t>Kuala Lumpur City FC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>62%</t>
         </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1440,19 +1484,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kuala Lumpur City FC  - Kelantan The Real Warriors: 0:0'</t>
+          <t>Thimphu City FC  - BFF Academy FC: -:-'</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.65</v>
+        <v>3.18</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kuala Lumpur City FC</t>
+          <t>Thimphu City FC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1468,23 +1512,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Thimphu City FC  - BFF Academy FC: -:-'</t>
+          <t>Red Star Belgrade  - FK Radnik Surdulica: 22:00</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.18</v>
+        <v>2.42</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thimphu City FC</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>60%</t>
         </is>
       </c>
     </row>
@@ -1496,15 +1540,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Red Star Belgrade  - FK Radnik Surdulica: 22:00</t>
+          <t>Lee Man ✓ - Hong Kong Football Club: 7:1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Lee Man</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1514,6 +1558,17 @@
         <is>
           <t>60%</t>
         </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1524,23 +1579,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lee Man ✓ - Hong Kong Football Club: 7:1</t>
+          <t>Hertha BSC ✓ - SG Dynamo Dresden: 2:0</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lee Man</t>
+          <t>Hertha BSC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1549,10 +1604,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1563,19 +1618,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hertha BSC  - SG Dynamo Dresden: 2:0'</t>
+          <t>FK Laktasi  - FK Romanija Pale: -:-'</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.81</v>
+        <v>2.81</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hertha BSC</t>
+          <t>FK Laktasi</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1591,15 +1646,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FK Laktasi  - FK Romanija Pale: -:-'</t>
+          <t>Gloria Bistrita - Corvinul Hunedoara ✓: 0:1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.81</v>
+        <v>2.1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FK Laktasi</t>
+          <t>Corvinul Hunedoara</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1609,6 +1664,17 @@
         <is>
           <t>59%</t>
         </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1619,35 +1685,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gloria Bistrita - Corvinul Hunedoara ✓: 0:1</t>
+          <t>Al-Jazira Club  - Al-Bataeh CSC: -:-'</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Corvinul Hunedoara</t>
+          <t>Al-Jazira Club</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
+          <t>58%</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1658,23 +1713,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Al-Jazira Club  - Al-Bataeh CSC: 14:45</t>
+          <t>Ninh Binh FC  - Becamex Ho Chi Minh City FC: 1:1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.49</v>
+        <v>5.65</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Al-Jazira Club</t>
+          <t>Ninh Binh FC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>57%</t>
         </is>
       </c>
     </row>
@@ -1686,19 +1741,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ninh Binh FC  - Becamex Ho Chi Minh City FC: 1:1</t>
+          <t>Holywell Town  - Brickfield Rangers: -:-'</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5.65</v>
+        <v>1.42</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ninh Binh FC</t>
+          <t>Holywell Town</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1714,24 +1769,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Holywell Town  - Brickfield Rangers: -:-'</t>
+          <t>Suwon Samsung Bluewings ✓ - Chungbuk Cheongju FC: 2:0</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.42</v>
+        <v>2.31</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Holywell Town</t>
+          <t>Suwon Samsung Bluewings</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>57%</t>
         </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1742,35 +1808,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Suwon Samsung Bluewings ✓ - Chungbuk Cheongju FC: 2:0</t>
+          <t>Vålerenga Fotball Elite - FK Bodø/Glimt : 1:0'</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.31</v>
+        <v>3.17</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Suwon Samsung Bluewings</t>
+          <t>FK Bodø/Glimt</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>57%</t>
         </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1781,19 +1836,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vålerenga Fotball Elite - FK Bodø/Glimt : -:-'</t>
+          <t>Ponce FC  - Puerto Rico Surf: 23:30</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.17</v>
+        <v>1.97</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FK Bodø/Glimt</t>
+          <t>Ponce FC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1809,15 +1864,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ponce FC  - Puerto Rico Surf: 23:30</t>
+          <t>Chongqing Tonglianglong  - Suzhou Dongwu: 0:0</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.97</v>
+        <v>1.15</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ponce FC</t>
+          <t>Chongqing Tonglianglong</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1825,7 +1880,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>56%</t>
         </is>
       </c>
     </row>
@@ -1837,15 +1892,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong  - Suzhou Dongwu: 0:0</t>
+          <t>Roda JC Kerkrade  - FC Utrecht U21: 0:0'</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.15</v>
+        <v>1.92</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Chongqing Tonglianglong</t>
+          <t>Roda JC Kerkrade</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1865,24 +1920,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Roda JC Kerkrade  - FC Utrecht U21: 14:30</t>
+          <t>CSM Ceahlaul Piatra Neamt ✓ - CSM Olimpia Satu Mare: 1:0</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Roda JC Kerkrade</t>
+          <t>CSM Ceahlaul Piatra Neamt</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>56%</t>
         </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1893,35 +1959,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CSM Ceahlaul Piatra Neamt ✓ - CSM Olimpia Satu Mare: 1:0</t>
+          <t>CA River Plate  - Club de Gimnasia y Esgrima La Plata: 22:00</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CSM Ceahlaul Piatra Neamt</t>
+          <t>CA River Plate</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>56%</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
+          <t>55%</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1932,19 +1987,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CA River Plate  - Club de Gimnasia y Esgrima La Plata: 22:00</t>
+          <t>Wellington Olympic AFC  - Western Suburbs FC: 10:30</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.45</v>
+        <v>3.53</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CA River Plate</t>
+          <t>Wellington Olympic AFC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1960,19 +2015,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wellington Olympic AFC  - Western Suburbs FC: 10:30</t>
+          <t>Mons Calpe SC - Lincoln Red Imps FC : -:-'</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.53</v>
+        <v>2.65</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wellington Olympic AFC</t>
+          <t>Lincoln Red Imps FC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1988,19 +2043,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mons Calpe SC - Lincoln Red Imps FC : 14:30</t>
+          <t>St. Johnstone FC  - Airdrieonians FC: 1:0'</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.65</v>
+        <v>1.62</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Lincoln Red Imps FC</t>
+          <t>St. Johnstone FC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2016,15 +2071,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>St. Johnstone FC  - Airdrieonians FC: -:-'</t>
+          <t>FC Prishtina  - SC Gjilani: -:-'</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>St. Johnstone FC</t>
+          <t>FC Prishtina</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2032,7 +2087,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>54%</t>
         </is>
       </c>
     </row>
@@ -2044,19 +2099,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FC Prishtina  - SC Gjilani: 16:30</t>
+          <t>Vitória Guimarães SC - SL Benfica : 19:30</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FC Prishtina</t>
+          <t>SL Benfica</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2072,15 +2127,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Vitória Guimarães SC - SL Benfica : 19:30</t>
+          <t>Maccabi Bnei Reineh - Maccabi Tel Aviv : -:-'</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.08</v>
+        <v>2.51</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SL Benfica</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2100,15 +2155,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Reineh - Maccabi Tel Aviv : 16:30</t>
+          <t>Coleraine FC  - Glenavon FC: 1:0'</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.51</v>
+        <v>2.95</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Coleraine FC</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2128,15 +2183,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Coleraine FC  - Glenavon FC: -:-'</t>
+          <t>Atlético de Madrid  - Sevilla FC: 0:0'</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Coleraine FC</t>
+          <t>Atlético de Madrid</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2156,19 +2211,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Atlético de Madrid  - Sevilla FC: 14:15</t>
+          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.8</v>
+        <v>1.27</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Atlético de Madrid</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2184,15 +2239,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo  - CA Juventud: 18:30</t>
+          <t>Floriana FC  - Sliema Wanderers: 17:00</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Floriana FC</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2212,23 +2267,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Floriana FC  - Sliema Wanderers: 17:00</t>
+          <t>Ynyshir Albions  - Carmarthen Town: -:-'</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Floriana FC</t>
+          <t>Ynyshir Albions</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>53%</t>
         </is>
       </c>
     </row>
@@ -2240,24 +2295,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ynyshir Albions  - Carmarthen Town: -:-'</t>
+          <t>Al-Taawoun FC - Al-Qadsiah FC X: 2:0</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ynyshir Albions</t>
+          <t>Al-Qadsiah FC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>53%</t>
         </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2268,24 +2334,35 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Al-Taawoun FC - Al-Qadsiah FC : -:-'</t>
+          <t>Ural Yekaterinburg ✓ - Sokol Saratov: 2:0</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.13</v>
+        <v>1.06</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Al-Qadsiah FC</t>
+          <t>Ural Yekaterinburg</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>53%</t>
         </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2296,35 +2373,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ural Yekaterinburg ✓ - Sokol Saratov: 2:0</t>
+          <t>Aalesunds FK  - Åsane Fotball: 1:0'</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.06</v>
+        <v>2.82</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ural Yekaterinburg</t>
+          <t>Aalesunds FK</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>53%</t>
         </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2335,19 +2401,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Aalesunds FK  - Åsane Fotball: -:-'</t>
+          <t>SK Slavia Prague  - FC Banik Ostrava: -:-'</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2.82</v>
+        <v>1.51</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Aalesunds FK</t>
+          <t>SK Slavia Prague</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2363,24 +2429,35 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SK Slavia Prague  - FC Banik Ostrava: 16:00</t>
+          <t>Tainan City TSG - Phnom Penh Crown ✓: 2:3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.51</v>
+        <v>2.59</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SK Slavia Prague</t>
+          <t>Phnom Penh Crown</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>53%</t>
         </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2391,35 +2468,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tainan City TSG - Phnom Penh Crown ✓: 2:3</t>
+          <t>SK Beveren  - Club NXT: 18:00</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.59</v>
+        <v>1.69</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Phnom Penh Crown</t>
+          <t>SK Beveren</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
+          <t>52%</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2430,24 +2496,35 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SK Beveren  - Club NXT: 18:00</t>
+          <t>Tai Po ✓ - Hong Kong Rangers: 6:1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.69</v>
+        <v>3.1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SK Beveren</t>
+          <t>Tai Po</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>52%</t>
-        </is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2458,19 +2535,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tai Po ✓ - Hong Kong Rangers: 6:1</t>
+          <t>SKN St. Pölten X - Floridsdorfer AC: 0:2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.1</v>
+        <v>1.54</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tai Po</t>
+          <t>SKN St. Pölten</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2479,14 +2556,14 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2497,24 +2574,35 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SKN St. Pölten  - Floridsdorfer AC: -:-'</t>
+          <t>Slavia Mozyr ✓ - Naftan Novopolotsk: 2:0</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SKN St. Pölten</t>
+          <t>Slavia Mozyr</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>51%</t>
         </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2525,15 +2613,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Slavia Mozyr  - Naftan Novopolotsk: -:-'</t>
+          <t>Ratchaburi FC  - Singha Chiangrai United: -:-'</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Slavia Mozyr</t>
+          <t>Ratchaburi FC</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2553,15 +2641,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ratchaburi FC  - Singha Chiangrai United: -:-'</t>
+          <t>Rasisalai United  - Trat FC: 2:2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ratchaburi FC</t>
+          <t>Rasisalai United</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2569,7 +2657,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -2581,15 +2669,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Rasisalai United  - Trat FC: 0:1'</t>
+          <t>Belshina Bobruisk  - BATE 2 Borisov: 0:0</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rasisalai United</t>
+          <t>Belshina Bobruisk</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2597,7 +2685,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>49%</t>
         </is>
       </c>
     </row>
@@ -2609,19 +2697,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Belshina Bobruisk  - BATE 2 Borisov: 0:0</t>
+          <t>GNK Dinamo Zagreb  - HNK Rijeka: 1:0'</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.46</v>
+        <v>1.8</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Belshina Bobruisk</t>
+          <t>GNK Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2637,15 +2725,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GNK Dinamo Zagreb  - HNK Rijeka: -:-'</t>
+          <t>ML Vitebsk  - Isloch Minsk Region: 2:0'</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>GNK Dinamo Zagreb</t>
+          <t>ML Vitebsk</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2653,7 +2741,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>48%</t>
         </is>
       </c>
     </row>
@@ -2665,15 +2753,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ML Vitebsk  - Isloch Minsk Region: 14:15</t>
+          <t>Club Alianza Lima  - FBC Melgar: 2:2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ML Vitebsk</t>
+          <t>Club Alianza Lima</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2681,7 +2769,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>47%</t>
         </is>
       </c>
     </row>
@@ -2693,15 +2781,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Club Alianza Lima  - FBC Melgar: 2:2</t>
+          <t>Bucheon FC 1995 ✓ - Ansan Greeners: 2:0</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Club Alianza Lima</t>
+          <t>Bucheon FC 1995</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2711,6 +2799,17 @@
         <is>
           <t>47%</t>
         </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2721,15 +2820,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Bucheon FC 1995 ✓ - Ansan Greeners: 2:0</t>
+          <t>FK Vojvodina Novi Sad  - FK IMT Belgrad: 22:00</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.46</v>
+        <v>1.74</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Bucheon FC 1995</t>
+          <t>FK Vojvodina Novi Sad</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2739,17 +2838,6 @@
         <is>
           <t>47%</t>
         </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2760,19 +2848,19 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FK Vojvodina Novi Sad  - FK IMT Belgrad: 22:00</t>
+          <t>Riga Mariners  - FC RFS II: 10:00</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FK Vojvodina Novi Sad</t>
+          <t>Riga Mariners</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2788,15 +2876,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Riga Mariners  - FC RFS II: 10:00</t>
+          <t>Limavady United FC  - Warrenpoint Town FC: -:-'</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2.36</v>
+        <v>2.15</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Riga Mariners</t>
+          <t>Limavady United FC</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2816,19 +2904,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Limavady United FC  - Warrenpoint Town FC: -:-'</t>
+          <t>FK Jablonec  - FC Zlin: 1:3'</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.15</v>
+        <v>1.28</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Limavady United FC</t>
+          <t>FK Jablonec</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2844,19 +2932,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FK Jablonec  - FC Zlin: -:-'</t>
+          <t>APOEL Nicosia  - Ethnikos Achnas: -:-'</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.28</v>
+        <v>2.3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FK Jablonec</t>
+          <t>APOEL Nicosia</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2872,23 +2960,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>APOEL Nicosia  - Ethnikos Achnas: 16:00</t>
+          <t>Renaissance de Berkane  - Al-Ahli SC: -:-'</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.31</v>
+        <v>1.42</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>APOEL Nicosia</t>
+          <t>Renaissance de Berkane</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>46%</t>
         </is>
       </c>
     </row>
@@ -2900,24 +2988,35 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Renaissance de Berkane  - Al-Ahli SC: 16:00</t>
+          <t>FC Slonim 2017 X - Niva Dolbizno: 0:2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.42</v>
+        <v>2.32</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Renaissance de Berkane</t>
+          <t>FC Slonim 2017</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>46%</t>
-        </is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2928,15 +3027,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FC Slonim 2017  - Niva Dolbizno: -:-'</t>
+          <t>Auckland FC ✓ - Adelaide United: 2:1</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FC Slonim 2017</t>
+          <t>Auckland FC</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2946,6 +3045,17 @@
         <is>
           <t>45%</t>
         </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2956,15 +3066,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Auckland FC ✓ - Adelaide United: 2:1</t>
+          <t>FC Thun  - FC Sion: -:-'</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>FC Thun</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2972,19 +3082,8 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
+          <t>44%</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2995,23 +3094,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FC Thun  - FC Sion: 16:00</t>
+          <t>Atlético Pantoja  - Atlántico FC: 21:00</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.61</v>
+        <v>1.53</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FC Thun</t>
+          <t>Atlético Pantoja</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>43%</t>
         </is>
       </c>
     </row>
@@ -3023,19 +3122,19 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Atlético Pantoja  - Atlántico FC: 21:00</t>
+          <t>PSS Sleman  - Persipura Jayapura: 11:00</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Atlético Pantoja</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3051,15 +3150,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PSS Sleman  - Persipura Jayapura: 11:00</t>
+          <t>Miramar Rangers AFC - Western Springs AFC ✓: 1:2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Western Springs AFC</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3069,6 +3168,17 @@
         <is>
           <t>43%</t>
         </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3079,35 +3189,24 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Miramar Rangers AFC - Western Springs AFC ✓: 1:2</t>
+          <t>Ismaily SC  - Kahraba Ismailia: 17:00</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.04</v>
+        <v>1.25</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Western Springs AFC</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>43%</t>
         </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3118,15 +3217,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ismaily SC  - Kahraba Ismailia: 17:00</t>
+          <t>Colwyn Bay  - Barry Town United: -:-'</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3134,7 +3233,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>42%</t>
         </is>
       </c>
     </row>
@@ -3146,15 +3245,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Colwyn Bay  - Barry Town United: 16:15</t>
+          <t>SSC Napoli  - Como 1907: -:-'</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>SSC Napoli</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3174,19 +3273,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SSC Napoli  - Como 1907: 16:00</t>
+          <t>Trethomas Bluebirds  - Aberystwyth Town: -:-'</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.44</v>
+        <v>3.66</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SSC Napoli</t>
+          <t>Trethomas Bluebirds</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3202,23 +3301,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Trethomas Bluebirds  - Aberystwyth Town: -:-'</t>
+          <t>DAC Dunajska Streda  - FC Kosice: -:-'</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3.66</v>
+        <v>2.19</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Trethomas Bluebirds</t>
+          <t>DAC Dunajska Streda</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>41%</t>
         </is>
       </c>
     </row>
@@ -3230,19 +3329,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DAC Dunajska Streda  - FC Kosice: 16:00</t>
+          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.19</v>
+        <v>1.35</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>DAC Dunajska Streda</t>
+          <t>CD Real Cartagena</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3258,24 +3357,35 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CD Real Cartagena  - Club Boca Juniors de Cali: 20:05</t>
+          <t>Bali United FC - PERSIB Bandung ✓: 0:1</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.35</v>
+        <v>2.06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CD Real Cartagena</t>
+          <t>PERSIB Bandung</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>41%</t>
         </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3286,24 +3396,35 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bali United FC - PERSIB Bandung : 0:0'</t>
+          <t>Daejeon Hana Citizen ✓ - FC Seoul: 3:1</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PERSIB Bandung</t>
+          <t>Daejeon Hana Citizen</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>41%</t>
-        </is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3314,15 +3435,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Daejeon Hana Citizen ✓ - FC Seoul: 3:1</t>
+          <t>FC Stade-Lausanne-Ouchy  - FC Stade Nyonnais: -:-'</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Daejeon Hana Citizen</t>
+          <t>FC Stade-Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3332,17 +3453,6 @@
         <is>
           <t>40%</t>
         </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>4</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3353,15 +3463,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FC Stade-Lausanne-Ouchy  - FC Stade Nyonnais: 16:00</t>
+          <t>Ogre United ✓ - Skanstes SK: 3:0</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>FC Stade-Lausanne-Ouchy</t>
+          <t>Ogre United</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3371,6 +3481,17 @@
         <is>
           <t>40%</t>
         </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3381,19 +3502,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ogre United  - Skanstes SK: -:-'</t>
+          <t>CD Marathón  - Olancho FC: 20:00</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ogre United</t>
+          <t>CD Marathón</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3409,15 +3530,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CD Marathón  - Olancho FC: 20:00</t>
+          <t>Al-Ahed  - Nejmeh SC: -:-'</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.23</v>
+        <v>2.59</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CD Marathón</t>
+          <t>Al-Ahed</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3437,23 +3558,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Al-Ahed  - Nejmeh SC: -:-'</t>
+          <t>Al-Khaleej FC - Al-Ittihad Club : 4:0'</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.59</v>
+        <v>3.1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Al-Ahed</t>
+          <t>Al-Ittihad Club</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>39%</t>
         </is>
       </c>
     </row>
@@ -3465,19 +3586,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Al-Khaleej FC - Al-Ittihad Club : -:-'</t>
+          <t>Zulte Waregem - Union Saint-Gilloise : 0:1'</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3.1</v>
+        <v>2.06</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Al-Ittihad Club</t>
+          <t>Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3493,19 +3614,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Zulte Waregem - Union Saint-Gilloise : -:-'</t>
+          <t>Boeung Ket  - Nagaworld FC: 1:1</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.06</v>
+        <v>1.49</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise</t>
+          <t>Boeung Ket</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3521,15 +3642,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Boeung Ket  - Nagaworld FC: -:-'</t>
+          <t>Neftchi PFK  - Kapaz PFK: -:-'</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Boeung Ket</t>
+          <t>Neftchi PFK</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3537,7 +3658,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>38%</t>
         </is>
       </c>
     </row>
@@ -3549,19 +3670,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Neftchi PFK  - Kapaz PFK: -:-'</t>
+          <t>RB Leipzig  - VfB Stuttgart: 2:0'</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.54</v>
+        <v>2.99</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Neftchi PFK</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3577,24 +3698,35 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RB Leipzig  - VfB Stuttgart: -:-'</t>
+          <t>Lao Army FC ✓ - BIS Master FC: 3:1</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2.99</v>
+        <v>3.56</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lao Army FC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>38%</t>
         </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3605,35 +3737,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lao Army FC ✓ - BIS Master FC: 3:1</t>
+          <t>FC Copenhagen  - FC Fredericia: -:-'</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3.56</v>
+        <v>1.9</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Lao Army FC</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>38%</t>
         </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>4</v>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3644,19 +3765,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FC Copenhagen  - FC Fredericia: 16:00</t>
+          <t>Partick Thistle FC  - Queen's Park FC: 1:0'</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.9</v>
+        <v>2.37</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Partick Thistle FC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3672,23 +3793,23 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Partick Thistle FC  - Queen's Park FC: -:-'</t>
+          <t>Cruzeiro Esporte Clube  - Esporte Clube Vitória: 18:00</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.37</v>
+        <v>1.21</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Partick Thistle FC</t>
+          <t>Cruzeiro Esporte Clube</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>37%</t>
         </is>
       </c>
     </row>
@@ -3700,15 +3821,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cruzeiro Esporte Clube  - Esporte Clube Vitória: 18:00</t>
+          <t>Real Cundinamarca - Boyacá Patriotas FC : 23:00</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Cruzeiro Esporte Clube</t>
+          <t>Boyacá Patriotas FC</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -3728,7 +3849,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Real Cundinamarca - Boyacá Patriotas FC : 23:00</t>
+          <t>Real Cundinamarca - Boyacá Patriotas FC : 18:00</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3756,23 +3877,23 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Real Cundinamarca - Boyacá Patriotas FC : 18:00</t>
+          <t>Nashville SC - Inter Miami CF : 22:30</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.23</v>
+        <v>2.62</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Boyacá Patriotas FC</t>
+          <t>Inter Miami CF</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>36%</t>
         </is>
       </c>
     </row>
@@ -3784,19 +3905,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nashville SC - Inter Miami CF : 22:30</t>
+          <t>Zeleziarne Podbrezova - Slovan Bratislava : 1:3'</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2.62</v>
+        <v>3.62</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3812,19 +3933,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Zeleziarne Podbrezova - Slovan Bratislava : -:-'</t>
+          <t>Manila Digger FC  - Svay Rieng: 2:2</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3.62</v>
+        <v>1.12</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Manila Digger FC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3840,15 +3961,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Manila Digger FC  - Svay Rieng: 11:00</t>
+          <t>Örgryte IS - Kalmar FF ✓: 0:2</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.12</v>
+        <v>1.45</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Manila Digger FC</t>
+          <t>Kalmar FF</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3858,6 +3979,17 @@
         <is>
           <t>36%</t>
         </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3868,19 +4000,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Örgryte IS - Kalmar FF : 0:1'</t>
+          <t>Shamrock Rovers  - Sligo Rovers: -:-'</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Kalmar FF</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3896,24 +4028,35 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Shamrock Rovers  - Sligo Rovers: 15:30</t>
+          <t>SC Metalurg Zaporizhya - Livyi Bereg Kyiv ✓: 0:5</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.34</v>
+        <v>0.95</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Livyi Bereg Kyiv</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>36%</t>
         </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3924,19 +4067,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SC Metalurg Zaporizhya - Livyi Bereg Kyiv : 0:5'</t>
+          <t>FK Leotar Trebinje  - FK Velez Nevesinje: -:-'</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.95</v>
+        <v>2.5</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Livyi Bereg Kyiv</t>
+          <t>FK Leotar Trebinje</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3952,23 +4095,23 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FK Leotar Trebinje  - FK Velez Nevesinje: -:-'</t>
+          <t>Técnico Universitario  - Mushuc Runa SC: 18:00</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>FK Leotar Trebinje</t>
+          <t>Técnico Universitario</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>35%</t>
         </is>
       </c>
     </row>
@@ -3980,19 +4123,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Técnico Universitario  - Mushuc Runa SC: 18:00</t>
+          <t>Deportes Copiapó  - Universidad de Concepción: 18:00</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.84</v>
+        <v>0.82</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Técnico Universitario</t>
+          <t>Deportes Copiapó</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4008,23 +4151,23 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Deportes Copiapó  - Universidad de Concepción: 18:00</t>
+          <t>Olympiacos Piraeus B  - GS Ilioupolis: 12:00</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.82</v>
+        <v>1.49</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Deportes Copiapó</t>
+          <t>Olympiacos Piraeus B</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>34%</t>
         </is>
       </c>
     </row>
@@ -4036,15 +4179,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B  - GS Ilioupolis: 12:00</t>
+          <t>PAOK Thessaloniki B  - Makedonikos Neapolis: 12:00</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.49</v>
+        <v>1.19</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus B</t>
+          <t>PAOK Thessaloniki B</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4064,19 +4207,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki B  - Makedonikos Neapolis: 12:00</t>
+          <t>NK Celje  - NK Aluminij Kidricevo: -:-'</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.19</v>
+        <v>2.71</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PAOK Thessaloniki B</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4120,7 +4263,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Stade Reims  - USL Dunkerque: 0:0'</t>
+          <t>Stade Reims X - USL Dunkerque: 1:2</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4139,6 +4282,17 @@
           <t>33%</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4187,7 +4341,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Thitsar Arman FC  - Yarmanya United FC: -:-'</t>
+          <t>Thitsar Arman FC  - Yarmanya United FC: 1:1</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -4215,7 +4369,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Geylang International  - Albirex Niigata (S): 0:1'</t>
+          <t>Geylang International X - Albirex Niigata (S): 0:3</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4234,6 +4388,17 @@
           <t>33%</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4299,7 +4464,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CD Leganés  - Burgos CF: 16:30</t>
+          <t>CD Leganés  - Burgos CF: -:-'</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4355,7 +4520,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rig  - SC Poltava: 1:2'</t>
+          <t>Kryvbas Kryvyi Rig  - SC Poltava: 2:2</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4383,7 +4548,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FC Goa  - NorthEast United FC: 13:00</t>
+          <t>FC Goa  - NorthEast United FC: 17:30</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4489,7 +4654,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nongbua Pitchaya FC  - Songkhla FC: 0:0'</t>
+          <t>Nongbua Pitchaya FC X - Songkhla FC: 0:1</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4508,6 +4673,17 @@
           <t>30%</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4584,7 +4760,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv  - Botev Plovdiv: 0:1'</t>
+          <t>Lokomotiv Plovdiv  - Botev Plovdiv: -:-'</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4612,7 +4788,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Middelfart Boldklub - Aalborg BK : 0:1'</t>
+          <t>Middelfart Boldklub - Aalborg BK ✓: 1:2</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4631,6 +4807,17 @@
           <t>29%</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4668,19 +4855,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>OFK Beograd  - FK Radnicki Nis: 22:00</t>
+          <t>Ajax Amsterdam  - SC Heerenveen: 0:0'</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4696,15 +4883,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam  - SC Heerenveen: 14:30</t>
+          <t>Dingnan United  - Shenzhen Juniors: 1:1</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2.07</v>
+        <v>2.41</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam</t>
+          <t>Dingnan United</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4712,7 +4899,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>28%</t>
         </is>
       </c>
     </row>
@@ -4724,19 +4911,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dingnan United  - Shenzhen Juniors: 1:1</t>
+          <t>Real Oruro  - Gualberto Villarroel San José: 18:00</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2.41</v>
+        <v>1.97</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Dingnan United</t>
+          <t>Real Oruro</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4752,19 +4939,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Real Oruro  - Gualberto Villarroel San José: 18:00</t>
+          <t>Bhayangkara Presisi Lampung FC  - Persita Tangerang: 07:30</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.97</v>
+        <v>0.92</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Real Oruro</t>
+          <t>Bhayangkara Presisi Lampung FC</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4780,19 +4967,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Bhayangkara Presisi Lampung FC  - Persita Tangerang: 07:30</t>
+          <t>Shelbourne FC  - St. Patrick's Athletic: -:-'</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Bhayangkara Presisi Lampung FC</t>
+          <t>Shelbourne FC</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4808,24 +4995,35 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Dungannon Swifts FC  - Crusaders FC: -:-'</t>
+          <t>Leicester City X - Blackburn Rovers: 0:2</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2.8</v>
+        <v>1.31</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Dungannon Swifts FC</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
           <t>28%</t>
         </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4836,19 +5034,19 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Shelbourne FC  - St. Patrick's Athletic: 15:30</t>
+          <t>Caernarfon Town  - Briton Ferry Llansawel: 2:1'</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Shelbourne FC</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4864,19 +5062,19 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Leicester City  - Blackburn Rovers: 0:1'</t>
+          <t>Dungannon Swifts FC  - Crusaders FC: 0:0'</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.31</v>
+        <v>2.85</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Dungannon Swifts FC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4892,19 +5090,19 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Caernarfon Town  - Briton Ferry Llansawel: -:-'</t>
+          <t>Southampton FC  - Preston North End: 0:1'</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3.75</v>
+        <v>1.41</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Southampton FC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4920,23 +5118,23 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Southampton FC  - Preston North End: -:-'</t>
+          <t>Guayama FC - FC Mayagüez : 19:30</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.41</v>
+        <v>5.07</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Southampton FC</t>
+          <t>FC Mayagüez</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>27%</t>
         </is>
       </c>
     </row>
@@ -4948,19 +5146,19 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Guayama FC - FC Mayagüez : 19:30</t>
+          <t>SD Aucas  - CD El Nacional: 20:30</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5.07</v>
+        <v>2.12</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>FC Mayagüez</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4976,24 +5174,35 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SD Aucas  - CD El Nacional: 20:30</t>
+          <t>Nantong Zhiyun X - Yanbian Longding: 0:1</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2.12</v>
+        <v>1.15</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t>27%</t>
         </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5004,15 +5213,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun X - Yanbian Longding: 0:1</t>
+          <t>Mamelodi Sundowns FC  - Orlando Pirates: 1:1</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.15</v>
+        <v>1.81</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Mamelodi Sundowns FC</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5022,17 +5231,6 @@
         <is>
           <t>27%</t>
         </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -5043,15 +5241,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Glentoran FC ✓ - Portadown FC: 2:1</t>
+          <t>Cork City FC - Derry City : -:-'</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Glentoran FC</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5059,19 +5257,8 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>3</v>
-      </c>
-      <c r="I158" t="b">
-        <v>0</v>
+          <t>26%</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -5082,264 +5269,249 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns FC  - Orlando Pirates: -:-'</t>
+          <t>San Juan FC - Metropolitan FA : 23:30</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.81</v>
+        <v>3.72</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Mamelodi Sundowns FC</t>
+          <t>Metropolitan FA</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="K159">
+          <t>26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sat Nov 01</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>IK Start  - Moss FK: 2:1'</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>IK Start</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Sat Nov 01</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Ballymena United FC - Larne FC : -:-'</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Larne FC</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Sat Nov 01</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>FK Drina Zvornik  - FK Sutjeska Foca: -:-'</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>FK Drina Zvornik</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Sat Nov 01</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Buckley Town  - Caersws FC: -:-'</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Buckley Town</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sat Nov 01</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>PDRM FC - Kuching City ✓: 0:5</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Kuching City</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Sat Nov 01</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Deportivo Mixco  - Antigua GFC: 21:00</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Deportivo Mixco</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="K165">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L159">
-        <f>(K159/K161)*100</f>
+      <c r="L165">
+        <f>(K165/K167)*100</f>
         <v/>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Cork City FC - Derry City : 15:30</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Derry City</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="K160">
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sat Nov 01</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Augšdaugavas NSS - JDFS Alberts : 10:00</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>JDFS Alberts</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="K166">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>San Juan FC - Metropolitan FA : 23:30</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Metropolitan FA</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="K161">
-        <f>K159+K160</f>
+    <row r="167">
+      <c r="K167">
+        <f>K165+K166</f>
         <v/>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>IK Start  - Moss FK: -:-'</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>IK Start</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>FK Drina Zvornik  - FK Sutjeska Foca: -:-'</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>FK Drina Zvornik</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Buckley Town  - Caersws FC: -:-'</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Buckley Town</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>PDRM FC - Kuching City : 0:0'</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Kuching City</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Deportivo Mixco  - Antigua GFC: 21:00</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Deportivo Mixco</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Sat Nov 01</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Augšdaugavas NSS - JDFS Alberts : 10:00</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>JDFS Alberts</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
       </c>
     </row>
   </sheetData>
